--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hgf-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hgf-Sdc2.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.07439166666666666</v>
+        <v>0.06674466666666666</v>
       </c>
       <c r="H2">
-        <v>0.223175</v>
+        <v>0.200234</v>
       </c>
       <c r="I2">
-        <v>0.001568113081150489</v>
+        <v>0.0009912440954723497</v>
       </c>
       <c r="J2">
-        <v>0.001576581513651204</v>
+        <v>0.0009958565080158308</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N2">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O2">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P2">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q2">
-        <v>0.1124142889833333</v>
+        <v>0.06740281357644444</v>
       </c>
       <c r="R2">
-        <v>1.01172860085</v>
+        <v>0.606625322188</v>
       </c>
       <c r="S2">
-        <v>3.515472492750993E-05</v>
+        <v>1.341563245401964E-05</v>
       </c>
       <c r="T2">
-        <v>3.916161397678932E-05</v>
+        <v>1.536129647277171E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.07439166666666666</v>
+        <v>0.06674466666666666</v>
       </c>
       <c r="H3">
-        <v>0.223175</v>
+        <v>0.200234</v>
       </c>
       <c r="I3">
-        <v>0.001568113081150489</v>
+        <v>0.0009912440954723497</v>
       </c>
       <c r="J3">
-        <v>0.001576581513651204</v>
+        <v>0.0009958565080158308</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>138.461282</v>
       </c>
       <c r="O3">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P3">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q3">
-        <v>3.433455178927777</v>
+        <v>3.080517371109777</v>
       </c>
       <c r="R3">
-        <v>30.90109661035</v>
+        <v>27.72465633998799</v>
       </c>
       <c r="S3">
-        <v>0.00107372624474844</v>
+        <v>0.0006131359601503989</v>
       </c>
       <c r="T3">
-        <v>0.001196108141943706</v>
+        <v>0.0007020588328033534</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.07439166666666666</v>
+        <v>0.06674466666666666</v>
       </c>
       <c r="H4">
-        <v>0.223175</v>
+        <v>0.200234</v>
       </c>
       <c r="I4">
-        <v>0.001568113081150489</v>
+        <v>0.0009912440954723497</v>
       </c>
       <c r="J4">
-        <v>0.001576581513651204</v>
+        <v>0.0009958565080158308</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N4">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O4">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P4">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q4">
-        <v>1.466231443970833</v>
+        <v>0.0006217710664444444</v>
       </c>
       <c r="R4">
-        <v>8.797388663824998</v>
+        <v>0.005595939598</v>
       </c>
       <c r="S4">
-        <v>0.0004585267901352152</v>
+        <v>1.237552507878932E-07</v>
       </c>
       <c r="T4">
-        <v>0.0003405260447980316</v>
+        <v>1.417034272465809E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.06674466666666666</v>
+      </c>
+      <c r="H5">
+        <v>0.200234</v>
+      </c>
+      <c r="I5">
+        <v>0.0009912440954723497</v>
+      </c>
+      <c r="J5">
+        <v>0.0009958565080158308</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>0.07439166666666666</v>
-      </c>
-      <c r="H5">
-        <v>0.223175</v>
-      </c>
-      <c r="I5">
-        <v>0.001568113081150489</v>
-      </c>
-      <c r="J5">
-        <v>0.001576581513651204</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N5">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O5">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P5">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q5">
-        <v>0.00225540655</v>
+        <v>1.831666111579667</v>
       </c>
       <c r="R5">
-        <v>0.02029865895</v>
+        <v>10.989996669478</v>
       </c>
       <c r="S5">
-        <v>7.05321339324661E-07</v>
+        <v>0.0003645687476171433</v>
       </c>
       <c r="T5">
-        <v>7.857129326763556E-07</v>
+        <v>0.000278294675312459</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>23.990009</v>
       </c>
       <c r="I6">
-        <v>0.1685629973331152</v>
+        <v>0.1187608236941705</v>
       </c>
       <c r="J6">
-        <v>0.1694733043653008</v>
+        <v>0.1193134362296531</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N6">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O6">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P6">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q6">
-        <v>12.08387948667533</v>
+        <v>8.075522160693112</v>
       </c>
       <c r="R6">
-        <v>108.754915380078</v>
+        <v>72.679699446238</v>
       </c>
       <c r="S6">
-        <v>0.00377892760122544</v>
+        <v>0.00160732514614213</v>
       </c>
       <c r="T6">
-        <v>0.004209644770954191</v>
+        <v>0.001840434894340929</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>23.990009</v>
       </c>
       <c r="I7">
-        <v>0.1685629973331152</v>
+        <v>0.1187608236941705</v>
       </c>
       <c r="J7">
-        <v>0.1694733043653008</v>
+        <v>0.1193134362296531</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>138.461282</v>
       </c>
       <c r="O7">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P7">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q7">
         <v>369.0763779257264</v>
@@ -886,10 +886,10 @@
         <v>3321.687401331538</v>
       </c>
       <c r="S7">
-        <v>0.1154192999890278</v>
+        <v>0.07345973811756101</v>
       </c>
       <c r="T7">
-        <v>0.1285746391405973</v>
+        <v>0.08411357570383622</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>23.990009</v>
       </c>
       <c r="I8">
-        <v>0.1685629973331152</v>
+        <v>0.1187608236941705</v>
       </c>
       <c r="J8">
-        <v>0.1694733043653008</v>
+        <v>0.1193134362296531</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N8">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O8">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P8">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q8">
-        <v>157.6113163971918</v>
+        <v>0.07449430905811111</v>
       </c>
       <c r="R8">
-        <v>945.6678983831509</v>
+        <v>0.670448781523</v>
       </c>
       <c r="S8">
-        <v>0.04928895181846052</v>
+        <v>1.482710019376736E-05</v>
       </c>
       <c r="T8">
-        <v>0.03660456090260639</v>
+        <v>1.697746883634308E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>23.990009</v>
       </c>
       <c r="I9">
-        <v>0.1685629973331152</v>
+        <v>0.1187608236941705</v>
       </c>
       <c r="J9">
-        <v>0.1694733043653008</v>
+        <v>0.1193134362296531</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N9">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O9">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P9">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q9">
-        <v>0.242443030954</v>
+        <v>219.4516740503172</v>
       </c>
       <c r="R9">
-        <v>2.181987278586</v>
+        <v>1316.710044301903</v>
       </c>
       <c r="S9">
-        <v>7.581792440143688E-05</v>
+        <v>0.04367893333027357</v>
       </c>
       <c r="T9">
-        <v>8.445955114292446E-05</v>
+        <v>0.03334244816263956</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>20.41511966666667</v>
+        <v>24.06383433333333</v>
       </c>
       <c r="H10">
-        <v>61.24535899999999</v>
+        <v>72.191503</v>
       </c>
       <c r="I10">
-        <v>0.4303333644344477</v>
+        <v>0.3573788721796719</v>
       </c>
       <c r="J10">
-        <v>0.4326573352585701</v>
+        <v>0.3590418115105046</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N10">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O10">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P10">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q10">
-        <v>30.84957313997533</v>
+        <v>24.30111978241622</v>
       </c>
       <c r="R10">
-        <v>277.646158259778</v>
+        <v>218.710078041746</v>
       </c>
       <c r="S10">
-        <v>0.009647423540860735</v>
+        <v>0.004836814280048626</v>
       </c>
       <c r="T10">
-        <v>0.01074702411572927</v>
+        <v>0.005538295596142455</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>20.41511966666667</v>
+        <v>24.06383433333333</v>
       </c>
       <c r="H11">
-        <v>61.24535899999999</v>
+        <v>72.191503</v>
       </c>
       <c r="I11">
-        <v>0.4303333644344477</v>
+        <v>0.3573788721796719</v>
       </c>
       <c r="J11">
-        <v>0.4326573352585701</v>
+        <v>0.3590418115105046</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>138.461282</v>
       </c>
       <c r="O11">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P11">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q11">
-        <v>942.234547076693</v>
+        <v>1110.636450542983</v>
       </c>
       <c r="R11">
-        <v>8480.110923690236</v>
+        <v>9995.728054886844</v>
       </c>
       <c r="S11">
-        <v>0.2946600171495017</v>
+        <v>0.2210573953804319</v>
       </c>
       <c r="T11">
-        <v>0.3282449761674258</v>
+        <v>0.2531172644730654</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>20.41511966666667</v>
+        <v>24.06383433333333</v>
       </c>
       <c r="H12">
-        <v>61.24535899999999</v>
+        <v>72.191503</v>
       </c>
       <c r="I12">
-        <v>0.4303333644344477</v>
+        <v>0.3573788721796719</v>
       </c>
       <c r="J12">
-        <v>0.4326573352585701</v>
+        <v>0.3590418115105046</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N12">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O12">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P12">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q12">
-        <v>402.3742406769668</v>
+        <v>0.2241706593712222</v>
       </c>
       <c r="R12">
-        <v>2414.245444061801</v>
+        <v>2.017535934341</v>
       </c>
       <c r="S12">
-        <v>0.1258323641669045</v>
+        <v>4.461818451671515E-05</v>
       </c>
       <c r="T12">
-        <v>0.09344971373364189</v>
+        <v>5.108914266898641E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>20.41511966666667</v>
+        <v>24.06383433333333</v>
       </c>
       <c r="H13">
-        <v>61.24535899999999</v>
+        <v>72.191503</v>
       </c>
       <c r="I13">
-        <v>0.4303333644344477</v>
+        <v>0.3573788721796719</v>
       </c>
       <c r="J13">
-        <v>0.4326573352585701</v>
+        <v>0.3590418115105046</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N13">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O13">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P13">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q13">
-        <v>0.618945598054</v>
+        <v>660.3810021729669</v>
       </c>
       <c r="R13">
-        <v>5.570510382485999</v>
+        <v>3962.286013037801</v>
       </c>
       <c r="S13">
-        <v>0.0001935595771806864</v>
+        <v>0.1314400443346747</v>
       </c>
       <c r="T13">
-        <v>0.0002156212417730759</v>
+        <v>0.1003351622986276</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.7644599999999999</v>
+        <v>0.9355965000000001</v>
       </c>
       <c r="H14">
-        <v>1.52892</v>
+        <v>1.871193</v>
       </c>
       <c r="I14">
-        <v>0.01611416681101785</v>
+        <v>0.01389481066706348</v>
       </c>
       <c r="J14">
-        <v>0.01080079313476688</v>
+        <v>0.009306310251024633</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N14">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O14">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P14">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q14">
-        <v>1.15518620844</v>
+        <v>0.9448221052210001</v>
       </c>
       <c r="R14">
-        <v>6.93111725064</v>
+        <v>5.668932631326</v>
       </c>
       <c r="S14">
-        <v>0.0003612552618091306</v>
+        <v>0.0001880542580570811</v>
       </c>
       <c r="T14">
-        <v>0.0002682871058200637</v>
+        <v>0.0001435517965519098</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.7644599999999999</v>
+        <v>0.9355965000000001</v>
       </c>
       <c r="H15">
-        <v>1.52892</v>
+        <v>1.871193</v>
       </c>
       <c r="I15">
-        <v>0.01611416681101785</v>
+        <v>0.01389481066706348</v>
       </c>
       <c r="J15">
-        <v>0.01080079313476688</v>
+        <v>0.009306310251024633</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>138.461282</v>
       </c>
       <c r="O15">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P15">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q15">
-        <v>35.28270387924</v>
+        <v>43.181296941571</v>
       </c>
       <c r="R15">
-        <v>211.69622327544</v>
+        <v>259.087781649426</v>
       </c>
       <c r="S15">
-        <v>0.01103377302646433</v>
+        <v>0.008594662120431886</v>
       </c>
       <c r="T15">
-        <v>0.008194258588016453</v>
+        <v>0.006560761776370673</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.7644599999999999</v>
+        <v>0.9355965000000001</v>
       </c>
       <c r="H16">
-        <v>1.52892</v>
+        <v>1.871193</v>
       </c>
       <c r="I16">
-        <v>0.01611416681101785</v>
+        <v>0.01389481066706348</v>
       </c>
       <c r="J16">
-        <v>0.01080079313476688</v>
+        <v>0.009306310251024633</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N16">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O16">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P16">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q16">
-        <v>15.06721572297</v>
+        <v>0.0087157051285</v>
       </c>
       <c r="R16">
-        <v>60.26886289187999</v>
+        <v>0.052294230771</v>
       </c>
       <c r="S16">
-        <v>0.004711890534156155</v>
+        <v>1.734745040708997E-06</v>
       </c>
       <c r="T16">
-        <v>0.002332864704436458</v>
+        <v>1.324222964830206E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7644599999999999</v>
+        <v>0.9355965000000001</v>
       </c>
       <c r="H17">
-        <v>1.52892</v>
+        <v>1.871193</v>
       </c>
       <c r="I17">
-        <v>0.01611416681101785</v>
+        <v>0.01389481066706348</v>
       </c>
       <c r="J17">
-        <v>0.01080079313476688</v>
+        <v>0.009306310251024633</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N17">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O17">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P17">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q17">
-        <v>0.02317689828</v>
+        <v>25.67546575250775</v>
       </c>
       <c r="R17">
-        <v>0.13906138968</v>
+        <v>102.701863010031</v>
       </c>
       <c r="S17">
-        <v>7.247988588239682E-06</v>
+        <v>0.005110359543533807</v>
       </c>
       <c r="T17">
-        <v>5.382736493906278E-06</v>
+        <v>0.00260067245513722</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.18960266666667</v>
+        <v>34.27139366666666</v>
       </c>
       <c r="H18">
-        <v>54.568808</v>
+        <v>102.814181</v>
       </c>
       <c r="I18">
-        <v>0.3834213583402689</v>
+        <v>0.5089742493636218</v>
       </c>
       <c r="J18">
-        <v>0.3854919857277112</v>
+        <v>0.5113425855008019</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N18">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O18">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P18">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q18">
-        <v>27.48656324403734</v>
+        <v>34.60933245581577</v>
       </c>
       <c r="R18">
-        <v>247.379069196336</v>
+        <v>311.483992102342</v>
       </c>
       <c r="S18">
-        <v>0.008595727276182833</v>
+        <v>0.006888526740498865</v>
       </c>
       <c r="T18">
-        <v>0.009575456901846233</v>
+        <v>0.007887567126193415</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.18960266666667</v>
+        <v>34.27139366666666</v>
       </c>
       <c r="H19">
-        <v>54.568808</v>
+        <v>102.814181</v>
       </c>
       <c r="I19">
-        <v>0.3834213583402689</v>
+        <v>0.5089742493636218</v>
       </c>
       <c r="J19">
-        <v>0.3854919857277112</v>
+        <v>0.5113425855008019</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1618,22 +1618,22 @@
         <v>138.461282</v>
       </c>
       <c r="O19">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P19">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q19">
-        <v>839.5185680990952</v>
+        <v>1581.753701004449</v>
       </c>
       <c r="R19">
-        <v>7555.667112891856</v>
+        <v>14235.78330904004</v>
       </c>
       <c r="S19">
-        <v>0.2625381933202134</v>
+        <v>0.3148270103204845</v>
       </c>
       <c r="T19">
-        <v>0.2924619493445183</v>
+        <v>0.3604862506292273</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.18960266666667</v>
+        <v>34.27139366666666</v>
       </c>
       <c r="H20">
-        <v>54.568808</v>
+        <v>102.814181</v>
       </c>
       <c r="I20">
-        <v>0.3834213583402689</v>
+        <v>0.5089742493636218</v>
       </c>
       <c r="J20">
-        <v>0.3854919857277112</v>
+        <v>0.5113425855008019</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N20">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O20">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P20">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q20">
-        <v>358.5101474161854</v>
+        <v>0.3192608796007777</v>
       </c>
       <c r="R20">
-        <v>2151.060884497112</v>
+        <v>2.873347916406999</v>
       </c>
       <c r="S20">
-        <v>0.1121149787106301</v>
+        <v>6.354462655796138E-05</v>
       </c>
       <c r="T20">
-        <v>0.08326246379560071</v>
+        <v>7.276047932544072E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,7 +1709,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.18960266666667</v>
+        <v>34.27139366666666</v>
       </c>
       <c r="H21">
-        <v>54.568808</v>
+        <v>102.814181</v>
       </c>
       <c r="I21">
-        <v>0.3834213583402689</v>
+        <v>0.5089742493636218</v>
       </c>
       <c r="J21">
-        <v>0.3854919857277112</v>
+        <v>0.5113425855008019</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N21">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O21">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P21">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q21">
-        <v>0.5514723736480001</v>
+        <v>940.5058637769711</v>
       </c>
       <c r="R21">
-        <v>4.963251362832</v>
+        <v>5643.035182661826</v>
       </c>
       <c r="S21">
-        <v>0.0001724590332425688</v>
+        <v>0.1871951676760805</v>
       </c>
       <c r="T21">
-        <v>0.000192115685745863</v>
+        <v>0.1428960072660556</v>
       </c>
     </row>
   </sheetData>
